--- a/report.xlsx
+++ b/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>metric</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tool_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>target_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>comparator</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
@@ -494,12 +519,17 @@
           <t>novartis.com</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Domain found in contacts</t>
         </is>
@@ -516,19 +546,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>skip</t>
+          <t>mail_tool</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Skipped</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No check was done</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Invalid or missing email format</t>
         </is>
       </c>
     </row>
@@ -556,12 +591,17 @@
           <t>gmail.com</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Domain found in contacts</t>
         </is>
@@ -578,19 +618,202 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>skip</t>
+          <t>mail_tool</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Skipped</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No check was done</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Invalid or missing email format</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aggregate monthly data for March 2025 should be less than 1200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>monthly_tool</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>month:2025-03</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6190</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>lt</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>tool_value=6190.0, target_value=2025.0, comparator=lt, period=month:2025-03, metric=None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSR supply in April 2025 equals 450</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>monthly_tool</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>csr_supply</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>month:2025-04</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5850</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>eq</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>tool_value=5850.0, target_value=2025.0, comparator=eq, period=month:2025-04, metric=csr_supply</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total for 2025-03 must be &gt;= 1000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>monthly_tool</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>month:2025-03</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6190</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>tool_value=6190.0, target_value=2025.0, comparator=ge, period=month:2025-03, metric=None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Spend on this item was this week 932 dollars</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>monthly_tool</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>spend</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>week:2025-93</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>932</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No data</t>
         </is>
       </c>
     </row>
